--- a/Tournament1Teams.xlsx
+++ b/Tournament1Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\Databse-Project-TBD\TheShowdownEffect.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BD60F17-8576-4DBF-9F56-80E823116285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E618A43-D88B-4DA9-8CF6-BD2EEC8F4B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="3600" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
+    <workbookView xWindow="1095" yWindow="4050" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Team</t>
   </si>
@@ -67,6 +67,75 @@
   </si>
   <si>
     <t>Team 8</t>
+  </si>
+  <si>
+    <t>Deathaxe</t>
+  </si>
+  <si>
+    <t>tk</t>
+  </si>
+  <si>
+    <t>Cap'n I_van</t>
+  </si>
+  <si>
+    <t>Kybosa of the NoSkill Tribe</t>
+  </si>
+  <si>
+    <t>Fluorite</t>
+  </si>
+  <si>
+    <t>Shootnroll</t>
+  </si>
+  <si>
+    <t>I Like Your Face</t>
+  </si>
+  <si>
+    <t>Patty Mayonaise</t>
+  </si>
+  <si>
+    <t>Ox1de</t>
+  </si>
+  <si>
+    <t>Papa</t>
+  </si>
+  <si>
+    <t>Cooldood269</t>
+  </si>
+  <si>
+    <t>TheAlmightyHero</t>
+  </si>
+  <si>
+    <t>Pookie</t>
+  </si>
+  <si>
+    <t>Chuckleberry86</t>
+  </si>
+  <si>
+    <t>Raksha</t>
+  </si>
+  <si>
+    <t>GamerThatFailed</t>
+  </si>
+  <si>
+    <t>wrong side of average</t>
+  </si>
+  <si>
+    <t>GiuseppeIII</t>
+  </si>
+  <si>
+    <t>Hera</t>
+  </si>
+  <si>
+    <t>Grievous</t>
+  </si>
+  <si>
+    <t>Kukoev</t>
+  </si>
+  <si>
+    <t>KofiZ</t>
+  </si>
+  <si>
+    <t>Blackout</t>
   </si>
 </sst>
 </file>
@@ -108,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -213,16 +282,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC8C8C8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,6 +341,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC8C8C8"/>
       <color rgb="FF111324"/>
     </mruColors>
   </colors>
@@ -570,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC101A1C-A379-40B1-849C-AE71502022F0}">
-  <dimension ref="B3:D35"/>
+  <dimension ref="B3:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,189 +680,236 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5">
+        <v>9</v>
+      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="9"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="2:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="9"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="B32:B35"/>
@@ -790,6 +920,12 @@
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tournament1Teams.xlsx
+++ b/Tournament1Teams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\Databse-Project-TBD\TheShowdownEffect.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E618A43-D88B-4DA9-8CF6-BD2EEC8F4B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30824ABB-1453-4019-B3C5-ACD6B73D1547}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="4050" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>Shootnroll</t>
   </si>
   <si>
-    <t>I Like Your Face</t>
-  </si>
-  <si>
     <t>Patty Mayonaise</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Blackout</t>
+  </si>
+  <si>
+    <t>MattH2580</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
   <dimension ref="B3:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -747,14 +747,14 @@
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="10"/>
     </row>
@@ -768,21 +768,21 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="13"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="13"/>
     </row>
@@ -796,21 +796,21 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="10"/>
     </row>
@@ -824,21 +824,21 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="10"/>
     </row>
@@ -852,21 +852,21 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="10"/>
     </row>
@@ -880,21 +880,21 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="10"/>
     </row>
@@ -910,6 +910,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="B32:B35"/>
@@ -920,12 +926,6 @@
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tournament1Teams.xlsx
+++ b/Tournament1Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\Databse-Project-TBD\TheShowdownEffect.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30824ABB-1453-4019-B3C5-ACD6B73D1547}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1414932C-C290-415F-A3C5-8E555DACDEA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="4050" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Team</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Team 7</t>
   </si>
   <si>
-    <t>Team 8</t>
-  </si>
-  <si>
     <t>Deathaxe</t>
   </si>
   <si>
@@ -136,6 +133,27 @@
   </si>
   <si>
     <t>MattH2580</t>
+  </si>
+  <si>
+    <t>Nomen Omen</t>
+  </si>
+  <si>
+    <t>Gold Exodus</t>
+  </si>
+  <si>
+    <t>Stellar</t>
+  </si>
+  <si>
+    <t>jenks976</t>
+  </si>
+  <si>
+    <t>I_am_THE_One</t>
+  </si>
+  <si>
+    <t>Ja_ruz</t>
+  </si>
+  <si>
+    <t>Sir Nicholas Tesla</t>
   </si>
 </sst>
 </file>
@@ -152,13 +170,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFC8C8C8"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFC8C8C8"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -295,36 +313,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -333,6 +349,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,269 +672,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC101A1C-A379-40B1-849C-AE71502022F0}">
-  <dimension ref="B3:D36"/>
+  <dimension ref="B3:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="14.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="13" customWidth="1"/>
+    <col min="5" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="13.75" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="9">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6"/>
+      <c r="G10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="5">
+    </row>
+    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="G13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="11"/>
+      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="2:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="2:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="2:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="G34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="2:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="B32:B35"/>
@@ -926,7 +984,14 @@
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tournament1Teams.xlsx
+++ b/Tournament1Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\Databse-Project-TBD\TheShowdownEffect.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1414932C-C290-415F-A3C5-8E555DACDEA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EC2E63-0800-4EF5-B93C-8A3E0A67D3C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="4050" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Team</t>
   </si>
@@ -45,27 +45,12 @@
     <t>Placement</t>
   </si>
   <si>
-    <t>Team 1</t>
-  </si>
-  <si>
     <t>Team 2</t>
   </si>
   <si>
-    <t>Team 3</t>
-  </si>
-  <si>
-    <t>Team 4</t>
-  </si>
-  <si>
-    <t>Team 5</t>
-  </si>
-  <si>
     <t>Team 6</t>
   </si>
   <si>
-    <t>Team 7</t>
-  </si>
-  <si>
     <t>Deathaxe</t>
   </si>
   <si>
@@ -154,6 +139,36 @@
   </si>
   <si>
     <t>Sir Nicholas Tesla</t>
+  </si>
+  <si>
+    <t>Traitor's Bluff</t>
+  </si>
+  <si>
+    <t>Wooolf</t>
+  </si>
+  <si>
+    <t>nstu</t>
+  </si>
+  <si>
+    <t>Kokoro</t>
+  </si>
+  <si>
+    <t>Woolf</t>
+  </si>
+  <si>
+    <t>ntsu</t>
+  </si>
+  <si>
+    <t>Teamy McTeam Face</t>
+  </si>
+  <si>
+    <t>We Gonna Pooke You</t>
+  </si>
+  <si>
+    <t>Underthere</t>
+  </si>
+  <si>
+    <t>Grease Squad</t>
   </si>
 </sst>
 </file>
@@ -672,16 +687,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC101A1C-A379-40B1-849C-AE71502022F0}">
-  <dimension ref="B3:G45"/>
+  <dimension ref="B3:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="14.875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.375" style="13" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="13" customWidth="1"/>
     <col min="5" max="6" width="9" style="13"/>
@@ -702,24 +717,24 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -730,10 +745,10 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -746,10 +761,12 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="G10" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
@@ -759,27 +776,34 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="G14" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -789,26 +813,28 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="11"/>
       <c r="G18" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -818,24 +844,24 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -846,25 +872,27 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -875,24 +903,24 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D30" s="6"/>
     </row>
@@ -903,28 +931,28 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D34" s="6"/>
       <c r="G34" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -944,32 +972,47 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C39" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C40" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C42" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="13" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Tournament1Teams.xlsx
+++ b/Tournament1Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\Databse-Project-TBD\TheShowdownEffect.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EC2E63-0800-4EF5-B93C-8A3E0A67D3C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597DD66A-F1F4-4B82-AAC8-09DD6628A8B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="4050" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
+    <workbookView xWindow="12915" yWindow="3570" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Team 2</t>
   </si>
   <si>
-    <t>Team 6</t>
-  </si>
-  <si>
     <t>Deathaxe</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Grease Squad</t>
+  </si>
+  <si>
+    <t>Forgot to Warm Up</t>
   </si>
 </sst>
 </file>
@@ -333,27 +333,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,9 +367,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,18 +690,18 @@
   <dimension ref="B3:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B24" sqref="B24:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="18.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="13" customWidth="1"/>
-    <col min="5" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="13.75" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="18.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="13.75" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -716,307 +716,313 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="3">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="9">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="G10" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="G12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="G13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="G18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="G24" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="G34" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="13" t="s">
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="4" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="13" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="B32:B35"/>
@@ -1027,12 +1033,6 @@
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tournament1Teams.xlsx
+++ b/Tournament1Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\Databse-Project-TBD\TheShowdownEffect.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597DD66A-F1F4-4B82-AAC8-09DD6628A8B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F9531A-12F4-40AD-8877-7377ADBEC905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12915" yWindow="3570" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
+    <workbookView xWindow="9690" yWindow="4455" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Team</t>
   </si>
@@ -690,7 +690,7 @@
   <dimension ref="B3:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B27"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -920,9 +920,12 @@
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="G30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
@@ -1017,12 +1020,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="B32:B35"/>
@@ -1033,6 +1030,12 @@
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tournament1Teams.xlsx
+++ b/Tournament1Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\Databse-Project-TBD\TheShowdownEffect.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F9531A-12F4-40AD-8877-7377ADBEC905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A334B85-E36F-49E7-B609-E80EBEE4F34A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="4455" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
+    <workbookView xWindow="1755" yWindow="4800" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Team</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Placement</t>
   </si>
   <si>
-    <t>Team 2</t>
-  </si>
-  <si>
     <t>Deathaxe</t>
   </si>
   <si>
@@ -169,6 +166,15 @@
   </si>
   <si>
     <t>Forgot to Warm Up</t>
+  </si>
+  <si>
+    <t>Substitute: Yandi</t>
+  </si>
+  <si>
+    <t>Substitute: Yante</t>
+  </si>
+  <si>
+    <t>2 Bacon Nuggets</t>
   </si>
 </sst>
 </file>
@@ -690,7 +696,7 @@
   <dimension ref="B3:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -717,38 +723,40 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="10"/>
     </row>
@@ -762,48 +770,50 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="11"/>
       <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10"/>
       <c r="G12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="11"/>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="11"/>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -813,28 +823,28 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="14"/>
       <c r="G18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,24 +854,24 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -872,27 +882,27 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="10"/>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -903,59 +913,61 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="11"/>
       <c r="G30" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="11"/>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,51 +987,57 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C48" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="B32:B35"/>
@@ -1030,12 +1048,6 @@
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tournament1Teams.xlsx
+++ b/Tournament1Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\Databse-Project-TBD\TheShowdownEffect.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A334B85-E36F-49E7-B609-E80EBEE4F34A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F112DAF9-DF34-4FB9-8164-8973513F5678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="4800" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
+    <workbookView xWindow="12210" yWindow="4275" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Team</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>2 Bacon Nuggets</t>
+  </si>
+  <si>
+    <t>Substitute: Pookie</t>
+  </si>
+  <si>
+    <t>Substitute: Yante, Wrong Side of Average</t>
   </si>
 </sst>
 </file>
@@ -696,14 +702,14 @@
   <dimension ref="B3:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A2" sqref="A2:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="18.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.25" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="4" customWidth="1"/>
     <col min="5" max="6" width="9" style="4"/>
     <col min="7" max="7" width="13.75" style="4" customWidth="1"/>
@@ -780,7 +786,7 @@
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D11" s="12"/>
     </row>
@@ -970,9 +976,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -1032,12 +1040,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="B32:B35"/>
@@ -1048,6 +1050,12 @@
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tournament1Teams.xlsx
+++ b/Tournament1Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\Databse-Project-TBD\TheShowdownEffect.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F112DAF9-DF34-4FB9-8164-8973513F5678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4A03E5-9331-4EF1-9D76-B9366BCC488D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12210" yWindow="4275" windowWidth="25485" windowHeight="14595" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CC34E7FB-F3C3-475C-A0A1-30CD59F5FA06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +203,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -361,23 +368,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,7 +709,7 @@
   <dimension ref="B3:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E36"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -764,7 +771,9 @@
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
@@ -957,7 +966,9 @@
       <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
@@ -1040,6 +1051,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="B32:B35"/>
@@ -1050,12 +1067,6 @@
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
